--- a/data/trans_camb/P15-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.05315402962658681</v>
+        <v>-0.5064768827947014</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9206147111995892</v>
+        <v>-0.8712717709926425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06600069385977742</v>
+        <v>0.4479372257219091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7116259188727994</v>
+        <v>0.6833459758758434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9869916440466309</v>
+        <v>-0.887247144444831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.139283782253725</v>
+        <v>1.051932662014331</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.182023286289015</v>
+        <v>1.17870545612489</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.18947665355424</v>
+        <v>-0.06558870240222749</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.56080824707054</v>
+        <v>1.614433013248552</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.747122734988261</v>
+        <v>4.805448291700563</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.838020323550937</v>
+        <v>3.966851644966363</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.553594609992226</v>
+        <v>6.704927087796215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.79627417359379</v>
+        <v>4.900743012342947</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.929014617260004</v>
+        <v>2.923292680128231</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.719864453378873</v>
+        <v>5.815672301919064</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.168597553543629</v>
+        <v>4.390188772381165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.798953731810238</v>
+        <v>2.808603375567382</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.363098628979981</v>
+        <v>5.548214927619542</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0151148701504938</v>
+        <v>-0.0970293694636542</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1275066653736013</v>
+        <v>-0.1258605831738545</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01764930520992126</v>
+        <v>0.03675042145249231</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1101022728032181</v>
+        <v>0.108232434189011</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1796794496602822</v>
+        <v>-0.1759304306769674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1816674446551286</v>
+        <v>0.1808787272806641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2065723348026076</v>
+        <v>0.1902098565421456</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03231242019665606</v>
+        <v>-0.0204164787078715</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2850645684499568</v>
+        <v>0.3002403191963945</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.255412345650321</v>
+        <v>1.281441110966994</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.067910601909843</v>
+        <v>1.122685250619564</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.6127646343815</v>
+        <v>1.685610287004532</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.385051302310385</v>
+        <v>1.302213873615699</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.798489571889385</v>
+        <v>0.8227707618536525</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.607667405127106</v>
+        <v>1.668428227993751</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.083994789835167</v>
+        <v>1.134407011556808</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7168787108711271</v>
+        <v>0.7299728853632061</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.300854595333503</v>
+        <v>1.444112416766463</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.841807280187002</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.211392385091477</v>
+        <v>-2.211392385091476</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.357346509842813</v>
@@ -878,7 +878,7 @@
         <v>-1.142903442329359</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.4538560200350109</v>
+        <v>-0.4538560200350116</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2830967072832849</v>
+        <v>0.08806192707941475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.233135818122293</v>
+        <v>-3.975924826085311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.340727870036747</v>
+        <v>-4.356378840833022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0745727758660141</v>
+        <v>0.207827360216828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.499227830183377</v>
+        <v>-2.377605117185725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6278915409554333</v>
+        <v>-0.6518913104282769</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7049506111889994</v>
+        <v>0.8636340606019316</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.600039729086169</v>
+        <v>-2.590535320735261</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.938055597136689</v>
+        <v>-1.924319226505003</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.445260596745296</v>
+        <v>5.036108470824793</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2659579760951284</v>
+        <v>0.1763795085072622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.06294880150212205</v>
+        <v>0.147883248337492</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.650041495615119</v>
+        <v>4.4973321575004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.620247644583604</v>
+        <v>1.86003713055984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.00155410763672</v>
+        <v>3.183227591861653</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.044639571686259</v>
+        <v>4.151832330407982</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3622027973755034</v>
+        <v>0.3884531319724034</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9143764263324596</v>
+        <v>0.8511762981827308</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1798037107590673</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.07140147936409821</v>
+        <v>-0.07140147936409832</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03132650961594426</v>
+        <v>0.01584941779863196</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4926289189022078</v>
+        <v>-0.4777475651265282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5113641696618576</v>
+        <v>-0.5194048637959796</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.003278909799731884</v>
+        <v>0.02059244801683006</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3965545620272093</v>
+        <v>-0.3802110516870821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.101883404725376</v>
+        <v>-0.0852589668445209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09524931829817883</v>
+        <v>0.1248517135055986</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3728773003122298</v>
+        <v>-0.365005376760403</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2747670426510607</v>
+        <v>-0.2705543787685082</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8368349600196371</v>
+        <v>0.8273136056363423</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05047179003934354</v>
+        <v>0.03033293173373481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.002933536258646515</v>
+        <v>0.0196638946232725</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.060311152595241</v>
+        <v>1.001009706997981</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3632505997970988</v>
+        <v>0.4234577356906342</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.717527755823577</v>
+        <v>0.7412820264917032</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7013836567517643</v>
+        <v>0.7483400142822249</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07016542364649753</v>
+        <v>0.07413874862901595</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1706940947597042</v>
+        <v>0.1500093599522362</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.5604611337157096</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.4722823369556685</v>
+        <v>-0.4722823369556678</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.842996497839072</v>
+        <v>-2.774512420580814</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.601648725769052</v>
+        <v>-4.497117355031363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.457891386565962</v>
+        <v>-3.322828483783342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1040874737086125</v>
+        <v>0.02473268017071016</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8335137731399073</v>
+        <v>-0.8843779670824056</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.783686260469379</v>
+        <v>-1.792138180115343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.028608838354566</v>
+        <v>-0.9764788212302653</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.178896694227745</v>
+        <v>-2.186881772252203</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.854148554365489</v>
+        <v>-2.031326570918877</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.195564275861122</v>
+        <v>1.919173974694039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1626299596029474</v>
+        <v>0.01367019553028107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.8556120889389</v>
+        <v>1.483521576312132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.595639784811964</v>
+        <v>4.188745762504214</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.78848686517461</v>
+        <v>3.749980711256487</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.953878339884763</v>
+        <v>1.774888170784263</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.427306983159498</v>
+        <v>2.352500981058875</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.077361101010589</v>
+        <v>1.196514650971573</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.210439072349574</v>
+        <v>0.9924875331684161</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.08365923424753714</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07049691099256515</v>
+        <v>-0.07049691099256505</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3182199390672614</v>
+        <v>-0.3112859799583476</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4974244400217382</v>
+        <v>-0.5010499698060021</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.380094382626917</v>
+        <v>-0.3718715367382274</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02173292982613422</v>
+        <v>-0.001197070014144318</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1412772533691402</v>
+        <v>-0.1514961051100328</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2709456932638034</v>
+        <v>-0.2860811802238345</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1400979451633001</v>
+        <v>-0.1318573012089405</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3032083259082101</v>
+        <v>-0.2979364851663547</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2473929354020335</v>
+        <v>-0.2674604490630187</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.319087094921815</v>
+        <v>0.2814620932281334</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03027264297735601</v>
+        <v>0.004306776991601649</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.266904226997505</v>
+        <v>0.227136526905833</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.064131139994321</v>
+        <v>0.9918751063391633</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.901475020641228</v>
+        <v>0.8851370821797734</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4949344422482291</v>
+        <v>0.4099397380118568</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4045546216117217</v>
+        <v>0.4024503949154061</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1788595118334104</v>
+        <v>0.2009749498971341</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2101747273998942</v>
+        <v>0.1667766878357959</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.088521845068917</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.9925248774972889</v>
+        <v>-0.9925248774972882</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7896015763117686</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.743010123388666</v>
+        <v>-5.048483284621401</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.033286591532031</v>
+        <v>-7.906765669872923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.304677125592265</v>
+        <v>-7.138045949697538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.398006300517811</v>
+        <v>-4.349576486383897</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.536877187748385</v>
+        <v>-5.537866664661236</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.490429575572047</v>
+        <v>-4.588977416976094</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.462952672180933</v>
+        <v>-3.587364856541679</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.647682142188666</v>
+        <v>-5.965106287295376</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.009098673038234</v>
+        <v>-4.952732902040278</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.177092590273687</v>
+        <v>3.197317523053259</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9055857529686354</v>
+        <v>-1.34016153129746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.128177292154421</v>
+        <v>-0.5570581051156787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.087435449062287</v>
+        <v>2.787475162821542</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.180655083059742</v>
+        <v>0.9760775331763166</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.715883968590713</v>
+        <v>1.830200042707857</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.899521420323752</v>
+        <v>1.980111641137451</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.9164299507371907</v>
+        <v>-1.037865711534129</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.4416701891804749</v>
+        <v>-0.1625041431493018</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.3131720612896501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1488282550172831</v>
+        <v>-0.148828255017283</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.09545376475792813</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4033316926056222</v>
+        <v>-0.4370140819294246</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6803980939569881</v>
+        <v>-0.6785432941263044</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.608776390808258</v>
+        <v>-0.6081846365072187</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5029287929615878</v>
+        <v>-0.4961664226810966</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6207122093916799</v>
+        <v>-0.6255168544891214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4821239255935862</v>
+        <v>-0.5067917848841448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3639631426394445</v>
+        <v>-0.3524905014561484</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5950008498993116</v>
+        <v>-0.6022868250711314</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5014455646349995</v>
+        <v>-0.5008797142508488</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4292450292665203</v>
+        <v>0.4144844722476678</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1118021474287309</v>
+        <v>-0.137659786850279</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1060524038261304</v>
+        <v>-0.04849216721071779</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7190159524579878</v>
+        <v>0.6178638595844168</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2821652742940142</v>
+        <v>0.2154670764321512</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4014796012018794</v>
+        <v>0.3904469360145164</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2834014264788825</v>
+        <v>0.2983087106002127</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1385750918971465</v>
+        <v>-0.1319138841135327</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06454800143203523</v>
+        <v>-0.02571946778647006</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.566944832218316</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.116506781466789</v>
+        <v>-1.11650678146679</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.060289115880478</v>
@@ -1520,7 +1520,7 @@
         <v>-0.6657180095148492</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.03697752382940539</v>
+        <v>-0.036977523829404</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4700870058809068</v>
+        <v>-0.4084701030606341</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.852917143204002</v>
+        <v>-2.734022311203708</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.535096839182428</v>
+        <v>-2.35087624406134</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9858484668302836</v>
+        <v>0.8595858204772217</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.91915400230111</v>
+        <v>-0.8860673892698614</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.102377532317211</v>
+        <v>-0.127439819737267</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4440755543768771</v>
+        <v>0.5720361396625273</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.566888262116093</v>
+        <v>-1.433828535193524</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.909374340849194</v>
+        <v>-0.8766601939845431</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.255091380045836</v>
+        <v>2.339304341880727</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3324512900794956</v>
+        <v>-0.2310213160439744</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1699363839353404</v>
+        <v>0.1997455070750285</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.344095569041727</v>
+        <v>3.255050201883076</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.390446032089168</v>
+        <v>1.289558517164114</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.06808067668907</v>
+        <v>2.005804017065179</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.344409483881672</v>
+        <v>2.322976952199519</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.115373002067433</v>
+        <v>0.1868863931626052</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8068080438693473</v>
+        <v>0.786922928106347</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2098945903858045</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1495577436680897</v>
+        <v>-0.1495577436680899</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3976545407399741</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1055260592163862</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.005861479355411858</v>
+        <v>-0.005861479355411638</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06041277442488907</v>
+        <v>-0.05294381408759445</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3496435938357287</v>
+        <v>-0.339845130408698</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3057673848752514</v>
+        <v>-0.291254688069778</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1693158733971663</v>
+        <v>0.1476412449784871</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1577557330990986</v>
+        <v>-0.1583254085944997</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01553424856591691</v>
+        <v>-0.02454590939784324</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06594639274682446</v>
+        <v>0.08661085082480735</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2280897629919608</v>
+        <v>-0.2131454667488056</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1345231897527938</v>
+        <v>-0.1313628232186144</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3354182715877741</v>
+        <v>0.3438533536761003</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.04594401937193154</v>
+        <v>-0.02371796875938124</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02702545325973901</v>
+        <v>0.0317231959511262</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.720907031247993</v>
+        <v>0.6875656283897914</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.289071326132291</v>
+        <v>0.27683194161205</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4724977421898835</v>
+        <v>0.4352435124543558</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3931668222988893</v>
+        <v>0.3897707445784366</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02320572133661252</v>
+        <v>0.03168648878610188</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1388678243065597</v>
+        <v>0.1337169737120413</v>
       </c>
     </row>
     <row r="34">
